--- a/biology/Botanique/Jean-Pierre_Moueix/Jean-Pierre_Moueix.xlsx
+++ b/biology/Botanique/Jean-Pierre_Moueix/Jean-Pierre_Moueix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Moueix, né le 20 août 1913 à Liginiac (Corrèze) et mort le 28 mars 2003 (à 89 ans) à Libourne (Gironde), est un négociant en vin installé à Bordeaux, fondateur de la société homonyme, les Établissements Jean-Pierre Moueix (en).
 </t>
@@ -511,11 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Moueix était aussi un important collectionneur d'art moderne (Picasso, Bacon, Dufy, etc.).
-Famille
-Il est le père de Jean-François Moueix, négociant en vin et de Christian Moueix (en), viticulteur et négociant en vin.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le père de Jean-François Moueix, négociant en vin et de Christian Moueix (en), viticulteur et négociant en vin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Moueix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Moueix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Domaines viticoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Château Magdelaine
@@ -562,35 +613,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jean-Pierre_Moueix</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Moueix</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres de la collection de J.-P. Moueix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Triptyque, 1976 de Francis Bacon, vendu en avril 2008.
-Achetée à l'origine par Jean-Pierre Moueix en 1977, l'œuvre est acquise, lors d'une vente aux enchères chez Sotheby's New York par le milliardaire russe Roman Abramovitch pour 86,3 M$, atteignant le plus haut prix payé pour une œuvre de l'après-guerre[1],[2].
-Untitled (Black, Red over Black on Red), 1964  de Mark Rothko, huile sur toile, tableau acquis en dation[3] par le musée national d'Art moderne à Paris.</t>
+Achetée à l'origine par Jean-Pierre Moueix en 1977, l'œuvre est acquise, lors d'une vente aux enchères chez Sotheby's New York par le milliardaire russe Roman Abramovitch pour 86,3 M$, atteignant le plus haut prix payé pour une œuvre de l'après-guerre,.
+Untitled (Black, Red over Black on Red), 1964  de Mark Rothko, huile sur toile, tableau acquis en dation par le musée national d'Art moderne à Paris.</t>
         </is>
       </c>
     </row>
